--- a/loan defaulters- classification/data/clean_data.xlsx
+++ b/loan defaulters- classification/data/clean_data.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\My Project (2021)\machine learning\supervised learning\loan defaulters- classification\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\my-data-science-portfolio\loan defaulters- classification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3E2A14-044B-4E4D-A5E7-0A4F6C4B8619}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E2C02-E293-4A68-BE80-0E98FC79481A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_data" sheetId="1" r:id="rId1"/>
-    <sheet name="description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="31">
   <si>
     <t>Dependents</t>
   </si>
@@ -114,42 +113,6 @@
   </si>
   <si>
     <t>25K+</t>
-  </si>
-  <si>
-    <t>Dependent</t>
-  </si>
-  <si>
-    <t>Loan_Status</t>
-  </si>
-  <si>
-    <t>Number of dependents of the applicant, int</t>
-  </si>
-  <si>
-    <t>Is the applicant self employed or not, str, category</t>
-  </si>
-  <si>
-    <t>Education status of the applicant, str, category</t>
-  </si>
-  <si>
-    <t>applicant's income, double</t>
-  </si>
-  <si>
-    <t>coapplicant's income, double</t>
-  </si>
-  <si>
-    <t>loan's amount, double</t>
-  </si>
-  <si>
-    <t>loan's term, int</t>
-  </si>
-  <si>
-    <t>property's area, category</t>
-  </si>
-  <si>
-    <t>loan status, binary (1, 0)</t>
-  </si>
-  <si>
-    <t>credit's history, binary (1, 0) 1, applicant have credit history. 0, applicant do not have credit history.</t>
   </si>
 </sst>
 </file>
@@ -975,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N524"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24038,103 +24001,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>